--- a/fuentes/contenidos/grado10/guion05/Escaleta CN_10_05_CO_F.xlsx
+++ b/fuentes/contenidos/grado10/guion05/Escaleta CN_10_05_CO_F.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16600" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -873,44 +878,44 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,34 +998,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1047,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1368,126 +1373,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
     <col min="5" max="5" width="44.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="74" customWidth="1"/>
-    <col min="8" max="8" width="58.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="58.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="118.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
     <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="103.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" customWidth="1"/>
-    <col min="19" max="19" width="32.5546875" customWidth="1"/>
-    <col min="20" max="20" width="56.21875" customWidth="1"/>
-    <col min="21" max="21" width="21.77734375" customWidth="1"/>
+    <col min="15" max="15" width="103.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="19" max="19" width="32.5" customWidth="1"/>
+    <col min="20" max="20" width="56.1640625" customWidth="1"/>
+    <col min="21" max="21" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="30" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:21" s="30" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51"/>
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="39"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="54"/>
+    </row>
+    <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1553,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1788,7 +1793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1847,7 +1852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -1908,7 +1913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -1957,7 +1962,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2016,7 +2021,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2080,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2191,7 +2196,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2250,7 +2255,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2368,7 +2373,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2427,7 +2432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2486,7 +2491,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2663,7 +2668,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2722,7 +2727,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2783,7 +2788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2842,7 +2847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -2901,7 +2906,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3015,7 +3020,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3117,7 +3122,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="18" t="s">
         <v>17</v>
       </c>
@@ -3231,7 +3236,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="18" t="s">
         <v>17</v>
       </c>
@@ -3288,7 +3293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="18" t="s">
         <v>17</v>
       </c>
@@ -3345,7 +3350,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3368,7 +3373,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3391,7 +3396,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3414,7 +3419,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3437,7 +3442,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3460,7 +3465,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3483,7 +3488,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3506,7 +3511,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3529,7 +3534,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3552,7 +3557,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3575,7 +3580,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3598,7 +3603,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3621,7 +3626,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3644,7 +3649,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3667,7 +3672,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3690,7 +3695,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3713,7 +3718,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3736,7 +3741,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3759,7 +3764,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3782,7 +3787,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3805,7 +3810,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3828,7 +3833,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3851,7 +3856,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3874,7 +3879,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3897,7 +3902,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3920,7 +3925,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3943,7 +3948,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3966,7 +3971,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3989,7 +3994,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4012,7 +4017,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4035,7 +4040,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4058,7 +4063,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4081,7 +4086,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4104,7 +4109,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4127,7 +4132,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4150,7 +4155,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="15">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4173,7 +4178,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="15">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4196,372 +4201,378 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" hidden="1"/>
+    <row r="74" spans="1:21" hidden="1"/>
+    <row r="75" spans="1:21" hidden="1"/>
+    <row r="76" spans="1:21" hidden="1"/>
+    <row r="77" spans="1:21" hidden="1"/>
+    <row r="78" spans="1:21" hidden="1"/>
+    <row r="79" spans="1:21" hidden="1"/>
+    <row r="80" spans="1:21" hidden="1"/>
+    <row r="81" spans="1:1" hidden="1"/>
+    <row r="82" spans="1:1" hidden="1"/>
+    <row r="83" spans="1:1" hidden="1"/>
+    <row r="84" spans="1:1" hidden="1"/>
+    <row r="85" spans="1:1" hidden="1"/>
+    <row r="86" spans="1:1" hidden="1">
       <c r="A86" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" hidden="1">
       <c r="A87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" hidden="1">
       <c r="A88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" hidden="1">
       <c r="A89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" hidden="1">
       <c r="A94" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" hidden="1">
       <c r="A95" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" hidden="1">
       <c r="A96" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" hidden="1">
       <c r="A97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" hidden="1">
       <c r="A98" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" hidden="1">
       <c r="A99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" hidden="1">
       <c r="A100" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" hidden="1">
       <c r="A101" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" hidden="1">
       <c r="A102" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" hidden="1">
       <c r="A103" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" hidden="1">
       <c r="A104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" hidden="1">
       <c r="A105" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" hidden="1">
       <c r="A106" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" hidden="1">
       <c r="A107" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" hidden="1">
       <c r="A108" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" hidden="1">
       <c r="A109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" hidden="1">
       <c r="A110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" hidden="1">
       <c r="A111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" hidden="1">
       <c r="A112" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" hidden="1">
       <c r="A113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" hidden="1">
       <c r="A114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" hidden="1">
       <c r="A115" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" hidden="1">
       <c r="A116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" hidden="1">
       <c r="A117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" hidden="1">
       <c r="A118" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" hidden="1">
       <c r="A119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" hidden="1">
       <c r="A120" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" hidden="1">
       <c r="A121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" hidden="1">
       <c r="A122" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="1:1" hidden="1"/>
+    <row r="124" spans="1:1" hidden="1"/>
+    <row r="125" spans="1:1" hidden="1"/>
+    <row r="126" spans="1:1" hidden="1"/>
+    <row r="127" spans="1:1" hidden="1"/>
+    <row r="128" spans="1:1" hidden="1"/>
+    <row r="129" hidden="1"/>
+    <row r="130" hidden="1"/>
+    <row r="131" hidden="1"/>
+    <row r="132" hidden="1"/>
+    <row r="133" hidden="1"/>
+    <row r="134" hidden="1"/>
+    <row r="135" hidden="1"/>
+    <row r="136" hidden="1"/>
+    <row r="137" hidden="1"/>
+    <row r="138" hidden="1"/>
+    <row r="139" hidden="1"/>
+    <row r="140" hidden="1"/>
+    <row r="141" hidden="1"/>
+    <row r="142" hidden="1"/>
+    <row r="143" hidden="1"/>
+    <row r="144" hidden="1"/>
+    <row r="145" hidden="1"/>
+    <row r="146" hidden="1"/>
+    <row r="147" hidden="1"/>
+    <row r="148" hidden="1"/>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1"/>
+    <row r="151" hidden="1"/>
+    <row r="152" hidden="1"/>
+    <row r="153" hidden="1"/>
+    <row r="154" hidden="1"/>
+    <row r="155" hidden="1"/>
+    <row r="156" hidden="1"/>
+    <row r="157" hidden="1"/>
+    <row r="158" hidden="1"/>
+    <row r="159" hidden="1"/>
+    <row r="160" hidden="1"/>
+    <row r="161" hidden="1"/>
+    <row r="162" hidden="1"/>
+    <row r="163" hidden="1"/>
+    <row r="164" hidden="1"/>
+    <row r="165" hidden="1"/>
+    <row r="166" hidden="1"/>
+    <row r="167" hidden="1"/>
+    <row r="168" hidden="1"/>
+    <row r="169" hidden="1"/>
+    <row r="170" hidden="1"/>
+    <row r="171" hidden="1"/>
+    <row r="172" hidden="1"/>
+    <row r="173" hidden="1"/>
+    <row r="174" hidden="1"/>
+    <row r="175" hidden="1"/>
+    <row r="176" hidden="1"/>
+    <row r="177" hidden="1"/>
+    <row r="178" hidden="1"/>
+    <row r="179" hidden="1"/>
+    <row r="180" hidden="1"/>
+    <row r="181" hidden="1"/>
+    <row r="182" hidden="1"/>
+    <row r="183" hidden="1"/>
+    <row r="184" hidden="1"/>
+    <row r="185" hidden="1"/>
+    <row r="186" hidden="1"/>
+    <row r="187" hidden="1"/>
+    <row r="188" hidden="1"/>
+    <row r="189" hidden="1"/>
+    <row r="190" hidden="1"/>
+    <row r="191" hidden="1"/>
+    <row r="192" hidden="1"/>
+    <row r="193" hidden="1"/>
+    <row r="194" hidden="1"/>
+    <row r="195" hidden="1"/>
+    <row r="196" hidden="1"/>
+    <row r="197" hidden="1"/>
+    <row r="198" hidden="1"/>
+    <row r="199" hidden="1"/>
+    <row r="200" hidden="1"/>
+    <row r="201" hidden="1"/>
+    <row r="202" hidden="1"/>
+    <row r="203" hidden="1"/>
+    <row r="204" hidden="1"/>
+    <row r="205" hidden="1"/>
+    <row r="206" hidden="1"/>
+    <row r="207" hidden="1"/>
+    <row r="208" hidden="1"/>
+    <row r="209" hidden="1"/>
+    <row r="210" hidden="1"/>
+    <row r="211" hidden="1"/>
+    <row r="212" hidden="1"/>
+    <row r="213" hidden="1"/>
+    <row r="214" hidden="1"/>
+    <row r="215" hidden="1"/>
+    <row r="216" hidden="1"/>
+    <row r="217" hidden="1"/>
+    <row r="218" hidden="1"/>
+    <row r="219" hidden="1"/>
+    <row r="220" hidden="1"/>
+    <row r="221" hidden="1"/>
+    <row r="222" hidden="1"/>
+    <row r="223" hidden="1"/>
+    <row r="224" hidden="1"/>
+    <row r="225" hidden="1"/>
+    <row r="226" hidden="1"/>
+    <row r="227" hidden="1"/>
+    <row r="228" hidden="1"/>
+    <row r="229" hidden="1"/>
+    <row r="230" hidden="1"/>
+    <row r="231" hidden="1"/>
+    <row r="232" hidden="1"/>
+    <row r="233" hidden="1"/>
+    <row r="234" hidden="1"/>
+    <row r="235" hidden="1"/>
+    <row r="236" hidden="1"/>
+    <row r="237" hidden="1"/>
+    <row r="238" hidden="1"/>
+    <row r="239" hidden="1"/>
+    <row r="240" hidden="1"/>
+    <row r="241" hidden="1"/>
+    <row r="242" hidden="1"/>
+    <row r="243" hidden="1"/>
+    <row r="244" hidden="1"/>
+    <row r="245" hidden="1"/>
+    <row r="246" hidden="1"/>
+    <row r="247" hidden="1"/>
+    <row r="248" hidden="1"/>
+    <row r="249" hidden="1"/>
+    <row r="250" hidden="1"/>
+    <row r="251" hidden="1"/>
+    <row r="252" hidden="1"/>
+    <row r="253" hidden="1"/>
+    <row r="254" hidden="1"/>
+    <row r="255" hidden="1"/>
+    <row r="256" hidden="1"/>
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
+    <row r="261" hidden="1"/>
+    <row r="262" hidden="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
+    <row r="277" hidden="1"/>
+    <row r="278" hidden="1"/>
+    <row r="279" hidden="1"/>
+    <row r="280" hidden="1"/>
+    <row r="281" hidden="1"/>
+    <row r="282" hidden="1"/>
+    <row r="283" hidden="1"/>
+    <row r="284" hidden="1"/>
+    <row r="285" hidden="1"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4576,15 +4587,9 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4620,6 +4625,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -4628,31 +4636,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C20" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="2"/>
-    <col min="14" max="14" width="24.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="2"/>
+    <col min="13" max="13" width="11.5" style="2"/>
+    <col min="14" max="14" width="24.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4669,7 +4677,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4693,7 +4701,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4712,7 +4720,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4731,7 +4739,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4747,7 +4755,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4764,7 +4772,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4781,7 +4789,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4796,7 +4804,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4811,7 +4819,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4826,7 +4834,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4841,7 +4849,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4856,7 +4864,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4871,7 +4879,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4886,7 +4894,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4901,7 +4909,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4916,7 +4924,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4930,7 +4938,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -4944,7 +4952,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -4958,7 +4966,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -4972,7 +4980,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4987,7 +4995,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5002,7 +5010,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5017,7 +5025,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5032,7 +5040,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5047,7 +5055,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5062,7 +5070,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5077,7 +5085,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5092,7 +5100,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5107,7 +5115,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5122,7 +5130,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5137,7 +5145,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5152,7 +5160,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5167,7 +5175,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5182,7 +5190,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5197,7 +5205,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5212,7 +5220,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5227,7 +5235,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5242,7 +5250,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5257,7 +5265,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5272,7 +5280,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5287,7 +5295,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5302,7 +5310,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5317,7 +5325,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5332,7 +5340,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5347,7 +5355,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5362,7 +5370,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5377,7 +5385,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5392,7 +5400,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5404,7 +5412,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5416,7 +5424,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5429,7 +5437,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5442,7 +5450,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5455,7 +5463,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5468,7 +5476,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5481,7 +5489,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5494,7 +5502,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5507,7 +5515,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5520,7 +5528,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5533,7 +5541,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5546,7 +5554,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5559,7 +5567,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5572,7 +5580,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5585,7 +5593,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5598,7 +5606,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5611,7 +5619,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5624,7 +5632,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5637,7 +5645,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5650,7 +5658,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5663,7 +5671,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5676,7 +5684,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5690,7 +5698,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5704,7 +5712,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5718,7 +5726,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5732,7 +5740,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5746,7 +5754,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5760,7 +5768,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5774,7 +5782,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5788,7 +5796,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5802,7 +5810,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5816,7 +5824,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5830,7 +5838,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5844,7 +5852,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5858,7 +5866,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5872,7 +5880,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5886,7 +5894,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5900,7 +5908,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5914,7 +5922,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5928,7 +5936,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5942,7 +5950,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5956,7 +5964,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5970,7 +5978,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5984,7 +5992,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5998,7 +6006,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6012,7 +6020,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6026,7 +6034,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6040,7 +6048,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6054,7 +6062,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6068,7 +6076,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6082,7 +6090,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6096,7 +6104,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6110,7 +6118,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6124,7 +6132,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6138,7 +6146,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6152,7 +6160,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6166,7 +6174,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6180,7 +6188,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6194,7 +6202,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6208,7 +6216,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6222,7 +6230,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6236,7 +6244,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6250,7 +6258,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6264,7 +6272,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6278,7 +6286,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6292,7 +6300,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6306,7 +6314,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6320,7 +6328,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6334,7 +6342,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6348,7 +6356,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6362,7 +6370,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6376,7 +6384,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6390,7 +6398,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6404,7 +6412,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6418,7 +6426,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6432,7 +6440,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6446,7 +6454,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6460,7 +6468,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6474,7 +6482,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6488,7 +6496,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6502,7 +6510,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6516,7 +6524,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6530,7 +6538,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6544,7 +6552,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6581,6 +6589,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado10/guion05/Escaleta CN_10_05_CO_F.xlsx
+++ b/fuentes/contenidos/grado10/guion05/Escaleta CN_10_05_CO_F.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$34</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -993,34 +998,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1047,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1157,7 +1162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1368,126 +1373,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="74" customWidth="1"/>
-    <col min="8" max="8" width="58.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="118.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="103.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" customWidth="1"/>
-    <col min="19" max="19" width="32.5546875" customWidth="1"/>
-    <col min="20" max="20" width="56.21875" customWidth="1"/>
-    <col min="21" max="21" width="21.77734375" customWidth="1"/>
+    <col min="10" max="10" width="118.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="103.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="32.5703125" customWidth="1"/>
+    <col min="20" max="20" width="56.28515625" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="30" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:21" s="30" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51"/>
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="39"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="54"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1553,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1788,7 +1793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1847,7 +1852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -1908,7 +1913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -1957,7 +1962,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2016,7 +2021,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2080,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2191,7 +2196,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2250,7 +2255,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2368,7 +2373,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2427,7 +2432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2486,7 +2491,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2663,7 +2668,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2722,7 +2727,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2783,7 +2788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2842,7 +2847,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -2901,7 +2906,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3015,7 +3020,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3117,7 +3122,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>17</v>
       </c>
@@ -3231,7 +3236,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>17</v>
       </c>
@@ -3288,7 +3293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>17</v>
       </c>
@@ -3345,7 +3350,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3368,7 +3373,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3391,7 +3396,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3414,7 +3419,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3437,7 +3442,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3460,7 +3465,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3483,7 +3488,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3506,7 +3511,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3529,7 +3534,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3552,7 +3557,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3575,7 +3580,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3598,7 +3603,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3621,7 +3626,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3644,7 +3649,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3667,7 +3672,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3690,7 +3695,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3713,7 +3718,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3736,7 +3741,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3759,7 +3764,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3782,7 +3787,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3805,7 +3810,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3828,7 +3833,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3851,7 +3856,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3874,7 +3879,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3897,7 +3902,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3920,7 +3925,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3943,7 +3948,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3966,7 +3971,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3989,7 +3994,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4012,7 +4017,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4035,7 +4040,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4058,7 +4063,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4081,7 +4086,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4104,7 +4109,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4127,7 +4132,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4150,7 +4155,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -4173,7 +4178,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -4196,372 +4201,378 @@
       <c r="T71" s="12"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
+  <autoFilter ref="A1:U34">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4576,12 +4587,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4632,27 +4637,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="2"/>
-    <col min="14" max="14" width="24.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" style="2"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4669,7 +4674,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4693,7 +4698,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4712,7 +4717,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4731,7 +4736,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4747,7 +4752,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4764,7 +4769,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4781,7 +4786,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4796,7 +4801,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4811,7 +4816,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4826,7 +4831,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4841,7 +4846,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4856,7 +4861,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4871,7 +4876,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4886,7 +4891,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4901,7 +4906,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4916,7 +4921,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4930,7 +4935,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -4944,7 +4949,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -4958,7 +4963,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -4972,7 +4977,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4987,7 +4992,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5002,7 +5007,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5017,7 +5022,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5032,7 +5037,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5047,7 +5052,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5062,7 +5067,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5077,7 +5082,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5092,7 +5097,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5107,7 +5112,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5122,7 +5127,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5137,7 +5142,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5152,7 +5157,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5167,7 +5172,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5182,7 +5187,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5197,7 +5202,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5212,7 +5217,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5227,7 +5232,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5242,7 +5247,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5257,7 +5262,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5272,7 +5277,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5287,7 +5292,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.9" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5302,7 +5307,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5317,7 +5322,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5332,7 +5337,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5347,7 +5352,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5362,7 +5367,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5377,7 +5382,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5392,7 +5397,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5404,7 +5409,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5416,7 +5421,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5429,7 +5434,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5442,7 +5447,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5455,7 +5460,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5468,7 +5473,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5481,7 +5486,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5494,7 +5499,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5507,7 +5512,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5520,7 +5525,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5533,7 +5538,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5546,7 +5551,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5559,7 +5564,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5572,7 +5577,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5585,7 +5590,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5598,7 +5603,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5611,7 +5616,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5624,7 +5629,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5637,7 +5642,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5650,7 +5655,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5663,7 +5668,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5676,7 +5681,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5690,7 +5695,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5704,7 +5709,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5718,7 +5723,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5732,7 +5737,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5746,7 +5751,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5760,7 +5765,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5774,7 +5779,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5788,7 +5793,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5802,7 +5807,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5816,7 +5821,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5830,7 +5835,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5844,7 +5849,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5858,7 +5863,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5872,7 +5877,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5886,7 +5891,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5900,7 +5905,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5914,7 +5919,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5928,7 +5933,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5942,7 +5947,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5956,7 +5961,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5970,7 +5975,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5984,7 +5989,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5998,7 +6003,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6012,7 +6017,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6026,7 +6031,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6040,7 +6045,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6054,7 +6059,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6068,7 +6073,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6082,7 +6087,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6096,7 +6101,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6110,7 +6115,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6124,7 +6129,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6138,7 +6143,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6152,7 +6157,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6166,7 +6171,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6180,7 +6185,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6194,7 +6199,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6208,7 +6213,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6222,7 +6227,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6236,7 +6241,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6250,7 +6255,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6264,7 +6269,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6278,7 +6283,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6292,7 +6297,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6306,7 +6311,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6320,7 +6325,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6334,7 +6339,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6348,7 +6353,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6362,7 +6367,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6376,7 +6381,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6390,7 +6395,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6404,7 +6409,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6418,7 +6423,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6432,7 +6437,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6446,7 +6451,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6460,7 +6465,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6474,7 +6479,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6488,7 +6493,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6502,7 +6507,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6516,7 +6521,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6530,7 +6535,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6544,7 +6549,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion05/Escaleta CN_10_05_CO_F.xlsx
+++ b/fuentes/contenidos/grado10/guion05/Escaleta CN_10_05_CO_F.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion05\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="240">
   <si>
     <t>Asignatura</t>
   </si>
@@ -653,9 +648,6 @@
     <t>Interactivo que presenta las distintas fuentes de energía</t>
   </si>
   <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
     <t>Interactivo que presenta las energías alternativas que se conocen en la actualidad</t>
   </si>
   <si>
@@ -741,6 +733,12 @@
   </si>
   <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Recurso M5A-05</t>
+  </si>
+  <si>
+    <t>Recurso F6B-02</t>
   </si>
 </sst>
 </file>
@@ -998,16 +996,34 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,24 +1063,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1162,7 +1160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1373,9 +1371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K29"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1391,7 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="103.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="19.85546875" customWidth="1"/>
@@ -1403,94 +1401,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="30" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="38" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1538,7 +1536,7 @@
         <v>19</v>
       </c>
       <c r="Q3" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R3" s="28" t="s">
         <v>126</v>
@@ -1590,9 +1588,7 @@
       <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="9" t="s">
         <v>138</v>
@@ -1719,7 +1715,7 @@
         <v>20</v>
       </c>
       <c r="Q6" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>154</v>
@@ -1770,9 +1766,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
         <v>19</v>
@@ -1837,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="Q8" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
         <v>126</v>
@@ -1888,9 +1882,7 @@
         <v>8</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="N9" s="8"/>
       <c r="O9" s="9" t="s">
         <v>166</v>
       </c>
@@ -2006,7 +1998,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>154</v>
@@ -2065,7 +2057,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
         <v>154</v>
@@ -2074,7 +2066,7 @@
         <v>155</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>157</v>
@@ -2116,9 +2108,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N13" s="8"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2172,9 +2162,7 @@
       <c r="L14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>117</v>
-      </c>
+      <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9" t="s">
@@ -2291,9 +2279,7 @@
         <v>8</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="N16" s="8"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9" t="s">
         <v>19</v>
@@ -2350,9 +2336,7 @@
         <v>8</v>
       </c>
       <c r="M17" s="8"/>
-      <c r="N17" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="N17" s="8"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2417,7 +2401,7 @@
         <v>19</v>
       </c>
       <c r="Q18" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R18" s="28" t="s">
         <v>126</v>
@@ -2468,9 +2452,7 @@
         <v>8</v>
       </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9" t="s">
         <v>19</v>
@@ -2594,7 +2576,7 @@
         <v>19</v>
       </c>
       <c r="Q21" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R21" s="28" t="s">
         <v>126</v>
@@ -2603,7 +2585,7 @@
         <v>127</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="U21" s="27" t="s">
         <v>129</v>
@@ -2645,9 +2627,7 @@
         <v>8</v>
       </c>
       <c r="M22" s="8"/>
-      <c r="N22" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9" t="s">
         <v>19</v>
@@ -2704,27 +2684,25 @@
         <v>8</v>
       </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="N23" s="8"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="10" t="s">
-        <v>131</v>
+      <c r="Q23" s="35">
+        <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2754,7 +2732,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
@@ -2762,12 +2740,10 @@
       <c r="L24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>19</v>
@@ -2782,7 +2758,7 @@
         <v>133</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>135</v>
@@ -2806,7 +2782,7 @@
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H25" s="21">
         <v>23</v>
@@ -2815,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
@@ -2824,9 +2800,7 @@
         <v>8</v>
       </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9" t="s">
         <v>19</v>
@@ -2841,7 +2815,7 @@
         <v>133</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>135</v>
@@ -2865,7 +2839,7 @@
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="21">
         <v>24</v>
@@ -2874,7 +2848,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -2891,7 +2865,7 @@
         <v>19</v>
       </c>
       <c r="Q26" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
         <v>154</v>
@@ -2917,12 +2891,12 @@
         <v>123</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="34"/>
       <c r="G27" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H27" s="21">
         <v>25</v>
@@ -2931,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -2948,7 +2922,7 @@
         <v>19</v>
       </c>
       <c r="Q27" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R27" s="28" t="s">
         <v>126</v>
@@ -2957,7 +2931,7 @@
         <v>127</v>
       </c>
       <c r="T27" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U27" s="27" t="s">
         <v>129</v>
@@ -2974,12 +2948,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="34"/>
       <c r="G28" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" s="21">
         <v>26</v>
@@ -2988,7 +2962,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -3014,7 +2988,7 @@
         <v>155</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>157</v>
@@ -3031,12 +3005,12 @@
         <v>123</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="34"/>
       <c r="G29" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H29" s="21">
         <v>27</v>
@@ -3045,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
@@ -3054,9 +3028,7 @@
         <v>8</v>
       </c>
       <c r="M29" s="8"/>
-      <c r="N29" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="N29" s="8"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9" t="s">
         <v>19</v>
@@ -3071,7 +3043,7 @@
         <v>133</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>135</v>
@@ -3088,7 +3060,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="34"/>
@@ -3102,7 +3074,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3133,12 +3105,12 @@
         <v>123</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="34"/>
       <c r="G31" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H31" s="21">
         <v>29</v>
@@ -3147,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3173,7 +3145,7 @@
         <v>155</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U31" s="10" t="s">
         <v>157</v>
@@ -3190,12 +3162,12 @@
         <v>123</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H32" s="21">
         <v>30</v>
@@ -3204,7 +3176,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
@@ -3230,7 +3202,7 @@
         <v>155</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>157</v>
@@ -3247,12 +3219,12 @@
         <v>123</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
       <c r="G33" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H33" s="21">
         <v>31</v>
@@ -3261,7 +3233,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>20</v>
@@ -3278,7 +3250,7 @@
         <v>19</v>
       </c>
       <c r="Q33" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
         <v>154</v>
@@ -3287,7 +3259,7 @@
         <v>155</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U33" s="10" t="s">
         <v>157</v>
@@ -3304,12 +3276,12 @@
         <v>123</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
       <c r="G34" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H34" s="21">
         <v>32</v>
@@ -3318,7 +3290,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>20</v>
@@ -3344,7 +3316,7 @@
         <v>155</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>157</v>
@@ -4567,12 +4539,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4587,6 +4553,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion05/Escaleta CN_10_05_CO_F.xlsx
+++ b/fuentes/contenidos/grado10/guion05/Escaleta CN_10_05_CO_F.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16600" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$32</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="238">
   <si>
     <t>Asignatura</t>
   </si>
@@ -723,9 +728,6 @@
     <t>Recurso M101A-01</t>
   </si>
   <si>
-    <t>Recurso M4A-02</t>
-  </si>
-  <si>
     <t>Recurso M5A-03</t>
   </si>
   <si>
@@ -733,9 +735,6 @@
   </si>
   <si>
     <t>Recurso M101AP-01</t>
-  </si>
-  <si>
-    <t>Recurso M5A-05</t>
   </si>
   <si>
     <t>Recurso F6B-02</t>
@@ -876,44 +875,44 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,34 +995,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,6 +1044,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1369,128 +1368,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U285"/>
+  <dimension ref="A1:U283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="74" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="118.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="32.5703125" customWidth="1"/>
-    <col min="20" max="20" width="56.28515625" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="118.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="19" max="19" width="32.5" customWidth="1"/>
+    <col min="20" max="20" width="56.33203125" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="30" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:21" s="30" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51"/>
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="39"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="54"/>
+    </row>
+    <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -1954,7 +1953,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -2585,13 +2584,13 @@
         <v>127</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U21" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -2699,13 +2698,13 @@
         <v>155</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -2821,7 +2820,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -2874,13 +2873,13 @@
         <v>155</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3094,7 +3093,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="10"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="18" t="s">
         <v>17</v>
       </c>
@@ -3167,7 +3166,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H32" s="21">
         <v>30</v>
@@ -3176,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
@@ -3186,7 +3185,7 @@
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9" t="s">
@@ -3202,127 +3201,59 @@
         <v>155</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U32" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>227</v>
-      </c>
+    <row r="33" spans="1:21" ht="15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="21">
-        <v>31</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="N33" s="8"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="35">
-        <v>6</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>227</v>
-      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="10"/>
+    </row>
+    <row r="34" spans="1:21" ht="15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="H34" s="21">
-        <v>32</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="N34" s="8"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="35">
-        <v>10</v>
-      </c>
-      <c r="R34" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="U34" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="10"/>
+    </row>
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -3345,7 +3276,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -3368,7 +3299,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="10"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -3391,7 +3322,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="10"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -3414,7 +3345,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="10"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -3437,7 +3368,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="10"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3460,7 +3391,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="10"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
@@ -3483,7 +3414,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="10"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
@@ -3506,7 +3437,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="10"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="4"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
@@ -3529,7 +3460,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="10"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
@@ -3552,7 +3483,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="10"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="4"/>
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
@@ -3575,7 +3506,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -3598,7 +3529,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="10"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -3621,7 +3552,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="10"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -3644,7 +3575,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="10"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -3667,7 +3598,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3690,7 +3621,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="10"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3713,7 +3644,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="10"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3736,7 +3667,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="10"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3759,7 +3690,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3782,7 +3713,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3805,7 +3736,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3828,7 +3759,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -3851,7 +3782,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -3874,7 +3805,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -3897,7 +3828,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3920,7 +3851,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3943,7 +3874,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3966,7 +3897,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3989,7 +3920,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4012,7 +3943,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -4035,7 +3966,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -4058,7 +3989,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -4081,7 +4012,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -4104,7 +4035,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -4127,418 +4058,378 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="10"/>
-    </row>
-    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="10"/>
-    </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" hidden="1"/>
+    <row r="72" spans="1:21" hidden="1"/>
+    <row r="73" spans="1:21" hidden="1"/>
+    <row r="74" spans="1:21" hidden="1"/>
+    <row r="75" spans="1:21" hidden="1"/>
+    <row r="76" spans="1:21" hidden="1"/>
+    <row r="77" spans="1:21" hidden="1"/>
+    <row r="78" spans="1:21" hidden="1"/>
+    <row r="79" spans="1:21" hidden="1"/>
+    <row r="80" spans="1:21" hidden="1"/>
+    <row r="81" spans="1:1" hidden="1"/>
+    <row r="82" spans="1:1" hidden="1"/>
+    <row r="83" spans="1:1" hidden="1"/>
+    <row r="84" spans="1:1" hidden="1">
+      <c r="A84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" hidden="1">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" hidden="1">
       <c r="A86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" hidden="1">
       <c r="A87" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" hidden="1">
       <c r="A88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" hidden="1">
       <c r="A89" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" hidden="1">
       <c r="A94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" hidden="1">
       <c r="A95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" hidden="1">
       <c r="A96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" hidden="1">
       <c r="A97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" hidden="1">
       <c r="A98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" hidden="1">
       <c r="A99" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" hidden="1">
       <c r="A100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" hidden="1">
       <c r="A101" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" hidden="1">
       <c r="A102" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" hidden="1">
       <c r="A103" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" hidden="1">
       <c r="A104" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" hidden="1">
       <c r="A105" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" hidden="1">
       <c r="A106" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" hidden="1">
       <c r="A107" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" hidden="1">
       <c r="A108" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" hidden="1">
       <c r="A109" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" hidden="1">
       <c r="A110" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" hidden="1">
       <c r="A111" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" hidden="1">
       <c r="A112" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" hidden="1">
       <c r="A113" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" hidden="1">
       <c r="A114" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" hidden="1">
       <c r="A115" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" hidden="1">
       <c r="A116" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" hidden="1">
       <c r="A117" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" hidden="1">
       <c r="A118" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" hidden="1">
       <c r="A119" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" hidden="1">
       <c r="A120" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:1" hidden="1"/>
+    <row r="122" spans="1:1" hidden="1"/>
+    <row r="123" spans="1:1" hidden="1"/>
+    <row r="124" spans="1:1" hidden="1"/>
+    <row r="125" spans="1:1" hidden="1"/>
+    <row r="126" spans="1:1" hidden="1"/>
+    <row r="127" spans="1:1" hidden="1"/>
+    <row r="128" spans="1:1" hidden="1"/>
+    <row r="129" hidden="1"/>
+    <row r="130" hidden="1"/>
+    <row r="131" hidden="1"/>
+    <row r="132" hidden="1"/>
+    <row r="133" hidden="1"/>
+    <row r="134" hidden="1"/>
+    <row r="135" hidden="1"/>
+    <row r="136" hidden="1"/>
+    <row r="137" hidden="1"/>
+    <row r="138" hidden="1"/>
+    <row r="139" hidden="1"/>
+    <row r="140" hidden="1"/>
+    <row r="141" hidden="1"/>
+    <row r="142" hidden="1"/>
+    <row r="143" hidden="1"/>
+    <row r="144" hidden="1"/>
+    <row r="145" hidden="1"/>
+    <row r="146" hidden="1"/>
+    <row r="147" hidden="1"/>
+    <row r="148" hidden="1"/>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1"/>
+    <row r="151" hidden="1"/>
+    <row r="152" hidden="1"/>
+    <row r="153" hidden="1"/>
+    <row r="154" hidden="1"/>
+    <row r="155" hidden="1"/>
+    <row r="156" hidden="1"/>
+    <row r="157" hidden="1"/>
+    <row r="158" hidden="1"/>
+    <row r="159" hidden="1"/>
+    <row r="160" hidden="1"/>
+    <row r="161" hidden="1"/>
+    <row r="162" hidden="1"/>
+    <row r="163" hidden="1"/>
+    <row r="164" hidden="1"/>
+    <row r="165" hidden="1"/>
+    <row r="166" hidden="1"/>
+    <row r="167" hidden="1"/>
+    <row r="168" hidden="1"/>
+    <row r="169" hidden="1"/>
+    <row r="170" hidden="1"/>
+    <row r="171" hidden="1"/>
+    <row r="172" hidden="1"/>
+    <row r="173" hidden="1"/>
+    <row r="174" hidden="1"/>
+    <row r="175" hidden="1"/>
+    <row r="176" hidden="1"/>
+    <row r="177" hidden="1"/>
+    <row r="178" hidden="1"/>
+    <row r="179" hidden="1"/>
+    <row r="180" hidden="1"/>
+    <row r="181" hidden="1"/>
+    <row r="182" hidden="1"/>
+    <row r="183" hidden="1"/>
+    <row r="184" hidden="1"/>
+    <row r="185" hidden="1"/>
+    <row r="186" hidden="1"/>
+    <row r="187" hidden="1"/>
+    <row r="188" hidden="1"/>
+    <row r="189" hidden="1"/>
+    <row r="190" hidden="1"/>
+    <row r="191" hidden="1"/>
+    <row r="192" hidden="1"/>
+    <row r="193" hidden="1"/>
+    <row r="194" hidden="1"/>
+    <row r="195" hidden="1"/>
+    <row r="196" hidden="1"/>
+    <row r="197" hidden="1"/>
+    <row r="198" hidden="1"/>
+    <row r="199" hidden="1"/>
+    <row r="200" hidden="1"/>
+    <row r="201" hidden="1"/>
+    <row r="202" hidden="1"/>
+    <row r="203" hidden="1"/>
+    <row r="204" hidden="1"/>
+    <row r="205" hidden="1"/>
+    <row r="206" hidden="1"/>
+    <row r="207" hidden="1"/>
+    <row r="208" hidden="1"/>
+    <row r="209" hidden="1"/>
+    <row r="210" hidden="1"/>
+    <row r="211" hidden="1"/>
+    <row r="212" hidden="1"/>
+    <row r="213" hidden="1"/>
+    <row r="214" hidden="1"/>
+    <row r="215" hidden="1"/>
+    <row r="216" hidden="1"/>
+    <row r="217" hidden="1"/>
+    <row r="218" hidden="1"/>
+    <row r="219" hidden="1"/>
+    <row r="220" hidden="1"/>
+    <row r="221" hidden="1"/>
+    <row r="222" hidden="1"/>
+    <row r="223" hidden="1"/>
+    <row r="224" hidden="1"/>
+    <row r="225" hidden="1"/>
+    <row r="226" hidden="1"/>
+    <row r="227" hidden="1"/>
+    <row r="228" hidden="1"/>
+    <row r="229" hidden="1"/>
+    <row r="230" hidden="1"/>
+    <row r="231" hidden="1"/>
+    <row r="232" hidden="1"/>
+    <row r="233" hidden="1"/>
+    <row r="234" hidden="1"/>
+    <row r="235" hidden="1"/>
+    <row r="236" hidden="1"/>
+    <row r="237" hidden="1"/>
+    <row r="238" hidden="1"/>
+    <row r="239" hidden="1"/>
+    <row r="240" hidden="1"/>
+    <row r="241" hidden="1"/>
+    <row r="242" hidden="1"/>
+    <row r="243" hidden="1"/>
+    <row r="244" hidden="1"/>
+    <row r="245" hidden="1"/>
+    <row r="246" hidden="1"/>
+    <row r="247" hidden="1"/>
+    <row r="248" hidden="1"/>
+    <row r="249" hidden="1"/>
+    <row r="250" hidden="1"/>
+    <row r="251" hidden="1"/>
+    <row r="252" hidden="1"/>
+    <row r="253" hidden="1"/>
+    <row r="254" hidden="1"/>
+    <row r="255" hidden="1"/>
+    <row r="256" hidden="1"/>
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
+    <row r="261" hidden="1"/>
+    <row r="262" hidden="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
+    <row r="277" hidden="1"/>
+    <row r="278" hidden="1"/>
+    <row r="279" hidden="1"/>
+    <row r="280" hidden="1"/>
+    <row r="281" hidden="1"/>
+    <row r="282" hidden="1"/>
+    <row r="283" hidden="1"/>
   </sheetData>
-  <autoFilter ref="A1:U34">
+  <autoFilter ref="A1:U32">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4553,15 +4444,9 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -4569,33 +4454,36 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N71</xm:sqref>
+          <xm:sqref>N3:N69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A71</xm:sqref>
+          <xm:sqref>A3:A69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I71 P3:P71 K3:K71</xm:sqref>
+          <xm:sqref>K3:K69 P3:P69 I3:I69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L71</xm:sqref>
+          <xm:sqref>L3:L69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M71</xm:sqref>
+          <xm:sqref>M3:M69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -4605,31 +4493,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C20" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="2"/>
-    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="11.5" style="2"/>
+    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4646,7 +4534,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4670,7 +4558,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -4689,7 +4577,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -4708,7 +4596,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -4724,7 +4612,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -4741,7 +4629,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4758,7 +4646,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4773,7 +4661,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4788,7 +4676,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4803,7 +4691,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4818,7 +4706,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4833,7 +4721,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4848,7 +4736,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4863,7 +4751,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4878,7 +4766,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4893,7 +4781,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -4907,7 +4795,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -4921,7 +4809,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -4935,7 +4823,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -4949,7 +4837,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4964,7 +4852,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4979,7 +4867,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4994,7 +4882,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5009,7 +4897,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5024,7 +4912,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5039,7 +4927,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5054,7 +4942,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5069,7 +4957,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5084,7 +4972,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5099,7 +4987,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5114,7 +5002,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -5129,7 +5017,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -5144,7 +5032,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5159,7 +5047,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5174,7 +5062,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5189,7 +5077,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5204,7 +5092,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5219,7 +5107,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5234,7 +5122,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5249,7 +5137,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5264,7 +5152,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5279,7 +5167,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5294,7 +5182,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -5309,7 +5197,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5324,7 +5212,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5339,7 +5227,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -5354,7 +5242,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5369,7 +5257,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5381,7 +5269,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5393,7 +5281,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5406,7 +5294,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5419,7 +5307,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5432,7 +5320,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -5445,7 +5333,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -5458,7 +5346,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -5471,7 +5359,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5484,7 +5372,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5497,7 +5385,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5510,7 +5398,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5523,7 +5411,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5536,7 +5424,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5549,7 +5437,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5562,7 +5450,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -5575,7 +5463,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -5588,7 +5476,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -5601,7 +5489,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5614,7 +5502,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5627,7 +5515,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5640,7 +5528,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5653,7 +5541,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5667,7 +5555,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5681,7 +5569,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5695,7 +5583,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5709,7 +5597,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5723,7 +5611,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5737,7 +5625,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5751,7 +5639,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5765,7 +5653,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5779,7 +5667,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5793,7 +5681,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5807,7 +5695,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5821,7 +5709,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5835,7 +5723,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5849,7 +5737,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5863,7 +5751,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5877,7 +5765,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5891,7 +5779,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5905,7 +5793,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5919,7 +5807,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5933,7 +5821,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5947,7 +5835,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5961,7 +5849,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5975,7 +5863,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5989,7 +5877,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6003,7 +5891,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6017,7 +5905,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6031,7 +5919,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6045,7 +5933,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6059,7 +5947,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6073,7 +5961,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6087,7 +5975,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6101,7 +5989,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6115,7 +6003,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6129,7 +6017,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6143,7 +6031,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6157,7 +6045,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6171,7 +6059,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6185,7 +6073,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6199,7 +6087,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6213,7 +6101,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6227,7 +6115,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6241,7 +6129,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6255,7 +6143,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6269,7 +6157,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6283,7 +6171,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6297,7 +6185,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6311,7 +6199,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6325,7 +6213,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6339,7 +6227,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6353,7 +6241,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6367,7 +6255,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6381,7 +6269,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6395,7 +6283,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6409,7 +6297,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6423,7 +6311,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6437,7 +6325,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6451,7 +6339,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6465,7 +6353,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6479,7 +6367,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6493,7 +6381,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6507,7 +6395,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6521,7 +6409,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6558,6 +6446,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>